--- a/patient_data/patient_41.xlsx
+++ b/patient_data/patient_41.xlsx
@@ -569,19 +569,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -646,19 +646,19 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -711,10 +711,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -723,19 +723,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>1</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -826,13 +826,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -903,13 +903,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -939,7 +939,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -980,13 +980,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1057,13 +1057,13 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -1134,13 +1134,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1428,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1505,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1582,10 +1582,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1875,13 +1875,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -1952,13 +1952,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2029,13 +2029,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2106,13 +2106,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2183,13 +2183,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
